--- a/Question_Set2/Software skills/Microsoft Access.xlsx
+++ b/Question_Set2/Software skills/Microsoft Access.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are creating a database for a hotel with seven floors. Each floor has 32 rooms with three-digit room numbers. The leading digit represents the floor number. The remaining two digits are reserved for room numbers.  How would you store room numbers in customer records most efficiently?', 'ques_type': 2, 'options': ['As an integer field in the customer record', 'As integers in a separate table and use an AutoID lookup field in the customer record', 'As a short text field in the customer record', 'As a byte field in the customer record'], 'score': 'As an integer field in the customer record'}, {'title': 'You work for an online retailer that would like to target their US marketing only to states in which there are already existing customers.  Which SQL statement would work best to achieve this?', 'ques_type': 2, 'options': ['SELECT COUNT(address_state) FROM customers', 'SELECT * FROM customers WHERE address_state is not null', 'SELECT DISTINCT address_state FROM customers', 'SELECT address_state FROM customers'], 'score': 'SELECT DISTINCT address_state FROM customers'}, {'title': 'You are designing a form to input customer data into a table. The table contains an address_country field with a datatype of Short Text and a field size of three. Which method should you use to ensure users enter the three-letter country codes defined in ISO 3166?', 'ques_type': 2, 'options': ['Use a Text Box control with a field size of three.', 'Use a Text Box control with an input mask.', 'Use a Combo Box control with validation text.', 'Use a Combo Box control with a value list from another table.'], 'score': 'Use a Combo Box control with a value list from another table.'}, {'title': 'You are creating an itemized customer sales receipt in Microsoft Access. The receipt must also display the total for all the customer’s items, which should appear immediately after the itemized data.Where in the report should you place the control?', 'ques_type': 2, 'options': ['In a Group Footer section', 'In the Page Footer section', 'In the Detail section', 'In the Report Footer section'], 'score': 'In a Group Footer section'}]</t>
+    <t>questions = [
+    {
+        "title": "You are creating a database for a hotel with seven floors. Each floor has 32 rooms with three-digit room numbers. The leading digit represents the floor number. The remaining two digits are reserved for room numbers.  How would you store room numbers in customer records most efficiently?",
+        "ques_type": 2,
+        "options": [
+            "As an integer field in the customer record",
+            "As integers in a separate table and use an AutoID lookup field in the customer record",
+            "As a short text field in the customer record",
+            "As a byte field in the customer record"
+        ],
+        "score": "As an integer field in the customer record"
+    },
+    {
+        "title": "You work for an online retailer that would like to target their US marketing only to states in which there are already existing customers.  Which SQL statement would work best to achieve this?",
+        "ques_type": 2,
+        "options": [
+            "SELECT COUNT(address_state) FROM customers",
+            "SELECT * FROM customers WHERE address_state is not null",
+            "SELECT DISTINCT address_state FROM customers",
+            "SELECT address_state FROM customers"
+        ],
+        "score": "SELECT DISTINCT address_state FROM customers"
+    },
+    {
+        "title": "You are designing a form to input customer data into a table. The table contains an address_country field with a datatype of Short Text and a field size of three. Which method should you use to ensure users enter the three-letter country codes defined in ISO 3166?",
+        "ques_type": 2,
+        "options": [
+            "Use a Text Box control with a field size of three.",
+            "Use a Text Box control with an input mask.",
+            "Use a Combo Box control with validation text.",
+            "Use a Combo Box control with a value list from another table."
+        ],
+        "score": "Use a Combo Box control with a value list from another table."
+    },
+    {
+        "title": "You are creating an itemized customer sales receipt in Microsoft Access. The receipt must also display the total for all the customer\u2019s items, which should appear immediately after the itemized data.Where in the report should you place the control?",
+        "ques_type": 2,
+        "options": [
+            "In a Group Footer section",
+            "In the Page Footer section",
+            "In the Detail section",
+            "In the Report Footer section"
+        ],
+        "score": "In a Group Footer section"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
